--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseInesPerezGorgona\IdeaProjects\RETO-PRACTICO-CHOUCAIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\RETO-PRACTICO-CHOUCAIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79978617-F201-400F-B18D-CE70900915AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Dominio" sheetId="1" r:id="rId1"/>
+    <sheet name="Sesion" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,18 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>URL</t>
   </si>
   <si>
     <t>https://www.choucairtesting.com/</t>
   </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,13 +109,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -390,33 +397,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="68.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{32287B85-67A5-4514-9BF1-8DFDD8A05181}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>